--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f41b9724c369c322/Web-clasificacionexcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\alvarortagomez.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{83D29B49-7412-43CB-ABEF-9B737C9DF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E4091C6-FEBB-471A-A6DB-5E8F7B35334A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4B5904-D77C-4D29-B6C2-6C167444612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D4719618-9AFD-407F-842F-D236DE17B682}"/>
+    <workbookView xWindow="6780" yWindow="3210" windowWidth="28800" windowHeight="10755" xr2:uid="{D4719618-9AFD-407F-842F-D236DE17B682}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -623,10 +623,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,7 +925,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1131,7 +1127,9 @@
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12">
+        <v>22</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="12"/>
@@ -1142,7 +1140,7 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I12" s="17"/>
     </row>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\alvarortagomez.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4B5904-D77C-4D29-B6C2-6C167444612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332CDEA-0684-44DE-B635-F9201DB0C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="3210" windowWidth="28800" windowHeight="10755" xr2:uid="{D4719618-9AFD-407F-842F-D236DE17B682}"/>
   </bookViews>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FE970-E86C-430B-9A1C-8CA89B4D00D8}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1148,7 +1148,9 @@
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="12">
+        <v>22</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="12"/>
@@ -1159,7 +1161,7 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I13" s="17"/>
     </row>
@@ -1168,7 +1170,9 @@
         <v>24</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12"/>
       <c r="F14" s="15"/>
@@ -1178,7 +1182,7 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="17"/>
     </row>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\alvarortagomez.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2332CDEA-0684-44DE-B635-F9201DB0C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F0BBF-DB25-4920-B80C-B2AC8019CB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="3210" windowWidth="28800" windowHeight="10755" xr2:uid="{D4719618-9AFD-407F-842F-D236DE17B682}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1173,7 +1173,9 @@
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1138,7 +1138,9 @@
       <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="28">
+        <v>32.0</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20"/>
       <c r="E21" s="18"/>
@@ -1149,7 +1151,7 @@
       </c>
       <c r="H21" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I21" s="23"/>
     </row>
